--- a/文档/江苏明美MES项目设备接口交互数据内容明细表-20180514.xlsx
+++ b/文档/江苏明美MES项目设备接口交互数据内容明细表-20180514.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\项目\明美项目\Git_mingmei\MingMeiMES\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3310F822-E5BB-494A-B895-37DD211D36CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7972AB65-478D-4555-9C24-38D615C45598}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15830" windowHeight="8520" tabRatio="745" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15830" windowHeight="8520" tabRatio="745" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="13" r:id="rId1"/>
@@ -339,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="331">
   <si>
     <t>文档更新说明</t>
   </si>
@@ -2475,13 +2475,7 @@
     <t>报警状态</t>
   </si>
   <si>
-    <t>M_ERROR_CODE</t>
-  </si>
-  <si>
     <t>M_ERROR_LEVEL</t>
-  </si>
-  <si>
-    <t>M_ERROR_STATUS</t>
   </si>
   <si>
     <t>0或1（0发生、1恢复）</t>
@@ -4137,6 +4131,30 @@
   </si>
   <si>
     <t>cell电压:值:V|cell内阻:值:mΩ              无二维码传过程参数</t>
+  </si>
+  <si>
+    <t>M_ERROR_CODE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ERROR_STATUS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTROL_TYPE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_WORKSTATION_SN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11均可</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4977,51 +4995,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5033,12 +5057,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5636,7 +5654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -5654,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25">
       <c r="A1" s="77" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -5706,7 +5724,7 @@
         <v>87</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
@@ -5720,7 +5738,7 @@
         <v>90</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>64</v>
@@ -5737,10 +5755,10 @@
         <v>225</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -5749,13 +5767,13 @@
         <v>82</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>228</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>102</v>
@@ -5766,10 +5784,10 @@
         <v>225</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -5778,13 +5796,13 @@
         <v>82</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>228</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>102</v>
@@ -5795,10 +5813,10 @@
         <v>225</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -5807,13 +5825,13 @@
         <v>82</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>228</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>102</v>
@@ -5824,10 +5842,10 @@
         <v>225</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
@@ -5836,13 +5854,13 @@
         <v>82</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>228</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>102</v>
@@ -5868,9 +5886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -5894,12 +5912,12 @@
       <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="14.5">
-      <c r="A2" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="88"/>
+      <c r="A2" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="87"/>
       <c r="C2" s="78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
@@ -5910,13 +5928,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>96</v>
@@ -5943,20 +5961,20 @@
     </row>
     <row r="5" spans="1:6" ht="48.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
         <v>102</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5981,7 +5999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -6001,22 +6019,22 @@
       <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" ht="14.5">
-      <c r="A2" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
+      <c r="A2" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>89</v>
@@ -6031,7 +6049,7 @@
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="8" t="s">
-        <v>97</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48.75" customHeight="1">
@@ -6039,7 +6057,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
@@ -6077,7 +6095,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="25.5">
       <c r="B1" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="14.5">
@@ -6107,7 +6125,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6124,7 +6142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="C1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6139,7 +6157,7 @@
   <sheetData>
     <row r="1" spans="3:7" ht="25.5">
       <c r="C1" s="105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D1" s="106"/>
       <c r="E1" s="106"/>
@@ -6152,7 +6170,7 @@
       </c>
       <c r="D3" s="81"/>
       <c r="E3" s="81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="81"/>
       <c r="G3" s="107"/>
@@ -6231,7 +6249,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="109" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -6323,7 +6341,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="109" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
@@ -6415,7 +6433,7 @@
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="37" customHeight="1">
       <c r="A11" s="108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B11" s="108"/>
       <c r="C11" s="108"/>
@@ -6600,10 +6618,10 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="115" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C1" s="118"/>
       <c r="D1" s="118"/>
@@ -6903,7 +6921,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="111" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C18" s="112"/>
       <c r="D18" s="112"/>
@@ -6956,7 +6974,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="119" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="120"/>
@@ -6992,7 +7010,7 @@
     </row>
     <row r="23" spans="1:16" ht="13">
       <c r="B23" s="111" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
@@ -7011,7 +7029,7 @@
     </row>
     <row r="24" spans="1:16" ht="13">
       <c r="B24" s="111" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="112"/>
       <c r="D24" s="112"/>
@@ -7034,10 +7052,10 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="115" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C27" s="118"/>
       <c r="D27" s="118"/>
@@ -7983,10 +8001,10 @@
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78"/>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="83"/>
+      <c r="O2" s="85"/>
     </row>
     <row r="3" spans="1:15" ht="14.5">
       <c r="A3" s="80"/>
@@ -8233,13 +8251,13 @@
         <v>109</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="82" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="85" t="s">
+      <c r="M9" s="83" t="s">
         <v>111</v>
       </c>
       <c r="N9" s="21" t="s">
@@ -8270,11 +8288,11 @@
         <v>112</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="84"/>
+      <c r="I10" s="82"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="85"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="21" t="s">
         <v>102</v>
       </c>
@@ -9980,22 +9998,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:14" ht="14.5">
       <c r="A2" s="79" t="s">
@@ -10004,11 +10022,11 @@
       <c r="B2" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="78" t="s">
         <v>240</v>
       </c>
@@ -10118,7 +10136,7 @@
       <c r="D5" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="89" t="s">
         <v>248</v>
       </c>
       <c r="F5" s="6">
@@ -10127,10 +10145,10 @@
       <c r="G5" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="89" t="s">
         <v>249</v>
       </c>
       <c r="J5" s="6">
@@ -10139,13 +10157,13 @@
       <c r="K5" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="90" t="s">
+      <c r="L5" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="92" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10162,24 +10180,24 @@
       <c r="D6" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="6">
         <v>4</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="6">
         <v>5</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="94"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="93"/>
     </row>
     <row r="7" spans="1:14" ht="59.25" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -10194,24 +10212,24 @@
       <c r="D7" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="92"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="33">
         <v>4</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
       <c r="J7" s="33">
         <v>5</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="95"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="94"/>
     </row>
     <row r="8" spans="1:14" s="31" customFormat="1" ht="59.25" customHeight="1">
       <c r="A8" s="34" t="s">
@@ -10238,11 +10256,11 @@
       <c r="B9" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="78" t="s">
         <v>240</v>
       </c>
@@ -10637,7 +10655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -10714,13 +10732,13 @@
         <v>245</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.5">
@@ -10737,14 +10755,14 @@
         <v>82</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>268</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.5">
@@ -10768,7 +10786,7 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.5">
@@ -10792,7 +10810,7 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -10836,7 +10854,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25">
       <c r="A1" s="77" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -10860,11 +10878,11 @@
       <c r="C2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="78" t="s">
         <v>240</v>
       </c>
@@ -10903,7 +10921,7 @@
         <v>59</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
@@ -10935,7 +10953,7 @@
         <v>64</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.5">
@@ -10973,7 +10991,7 @@
         <v>70</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.5">
@@ -11011,7 +11029,7 @@
         <v>228</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.5">
@@ -11049,7 +11067,7 @@
         <v>232</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.5">
@@ -11087,7 +11105,7 @@
         <v>228</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -11138,7 +11156,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="25">
       <c r="A1" s="77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -11165,15 +11183,15 @@
       <c r="B2" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="78" t="s">
         <v>240</v>
       </c>
@@ -11195,7 +11213,7 @@
     <row r="3" spans="1:18" ht="14.5">
       <c r="A3" s="80"/>
       <c r="B3" s="81"/>
-      <c r="C3" s="98"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="14" t="s">
         <v>57</v>
       </c>
@@ -11245,7 +11263,7 @@
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
-      <c r="C4" s="98"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="23" t="s">
         <v>61</v>
       </c>
@@ -11253,7 +11271,7 @@
         <v>245</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>246</v>
@@ -11265,7 +11283,7 @@
         <v>245</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>246</v>
@@ -11280,7 +11298,7 @@
         <v>245</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>246</v>
@@ -11294,22 +11312,22 @@
     </row>
     <row r="5" spans="1:18" ht="54.75" customHeight="1">
       <c r="A5" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>282</v>
       </c>
       <c r="D5" s="15">
         <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -11318,54 +11336,54 @@
         <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K5" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="99" t="s">
-        <v>284</v>
+      <c r="L5" s="101" t="s">
+        <v>282</v>
       </c>
       <c r="M5" s="6">
         <v>13</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="P5" s="11">
         <v>1</v>
       </c>
-      <c r="Q5" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="R5" s="101" t="s">
+      <c r="Q5" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="R5" s="97" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="54.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D6" s="15">
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -11374,48 +11392,48 @@
         <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K6" s="11">
         <v>1</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="101"/>
       <c r="M6" s="6">
         <v>13</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P6" s="11">
         <v>1</v>
       </c>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="1:18" ht="54.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D7" s="15">
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -11424,48 +11442,48 @@
         <v>12</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K7" s="11">
         <v>1</v>
       </c>
-      <c r="L7" s="99"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="6">
         <v>13</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P7" s="11">
         <v>1</v>
       </c>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="1:18" ht="54.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="15">
         <v>12</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G8" s="26">
         <v>1</v>
@@ -11474,42 +11492,42 @@
         <v>12</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K8" s="26">
         <v>1</v>
       </c>
-      <c r="L8" s="100"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="6">
         <v>13</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P8" s="26">
         <v>1</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="98"/>
     </row>
     <row r="10" spans="1:18" ht="17.5">
       <c r="D10" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.5">
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="78" t="s">
         <v>240</v>
       </c>
@@ -11583,7 +11601,7 @@
         <v>245</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>246</v>
@@ -11595,7 +11613,7 @@
         <v>245</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>246</v>
@@ -11610,7 +11628,7 @@
         <v>245</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>246</v>
@@ -11627,10 +11645,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -11639,44 +11657,44 @@
         <v>12</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K14" s="11">
         <v>1</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M14" s="6">
         <v>13</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P14" s="11">
         <v>1</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="R14" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="R14" s="97" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="R15" s="101"/>
+      <c r="R15" s="97"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="R16" s="101"/>
+      <c r="R16" s="97"/>
     </row>
     <row r="17" spans="18:18">
-      <c r="R17" s="102"/>
+      <c r="R17" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="14">
